--- a/boardgameorder-core/src/test/resources/price-2.xlsx
+++ b/boardgameorder-core/src/test/resources/price-2.xlsx
@@ -83,7 +83,7 @@
         <b val="1"/>
         <i val="1"/>
         <sz val="8"/>
-        <color indexed="14"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>7500 руб.</t>
@@ -120,7 +120,7 @@
         <b val="1"/>
         <i val="1"/>
         <sz val="8"/>
-        <color indexed="14"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">10 000 руб. </t>
@@ -154,7 +154,7 @@
     <t>РРЦ*</t>
   </si>
   <si>
-    <t>Опт. Базовая цена</t>
+    <t>Базовая цена</t>
   </si>
   <si>
     <t>Заказ</t>
@@ -185,7 +185,7 @@
       <rPr>
         <u val="single"/>
         <sz val="8"/>
-        <color indexed="18"/>
+        <color indexed="17"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Фото</t>
@@ -426,9 +426,87 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="8"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="8"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="8"/>
+      <color indexed="17"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b val="1"/>
@@ -439,7 +517,7 @@
     <font>
       <b val="1"/>
       <sz val="8"/>
-      <color indexed="9"/>
+      <color indexed="18"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -458,84 +536,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="8"/>
-      <color indexed="13"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="8"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="8"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -546,25 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -579,41 +579,41 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -622,11 +622,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -643,28 +643,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +688,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -700,7 +700,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -724,7 +724,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -737,23 +737,23 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,11 +762,11 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,22 +775,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -800,23 +800,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -835,7 +835,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,7 +860,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -875,10 +875,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,10 +897,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -926,7 +926,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -988,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1009,13 +1009,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1024,22 +1024,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1054,142 +1054,142 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="17" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1209,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff993300"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffff99"/>
@@ -1219,13 +1218,14 @@
       <rgbColor rgb="ffdc143c"/>
       <rgbColor rgb="ffffed78"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff993300"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1241,7 +1241,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image.png"/>
+        <xdr:cNvPr id="2" name="image.png" descr="image.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1256,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64938" y="47587"/>
-          <a:ext cx="1289498" cy="390713"/>
+          <a:off x="64937" y="47586"/>
+          <a:ext cx="1289498" cy="390714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,179 +1274,262 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1474539</xdr:colOff>
+      <xdr:colOff>1436353</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74747</xdr:rowOff>
+      <xdr:rowOff>30947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83467</xdr:colOff>
+      <xdr:colOff>121652</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3439</xdr:rowOff>
+      <xdr:rowOff>28094</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Shape 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1474539" y="74747"/>
-          <a:ext cx="8514929" cy="328743"/>
+          <a:off x="1436353" y="30947"/>
+          <a:ext cx="8591300" cy="397198"/>
+          <a:chOff x="-19050" y="-16646"/>
+          <a:chExt cx="8553028" cy="345388"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1" y="0"/>
+            <a:ext cx="8514930" cy="328742"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19051" y="-16647"/>
+            <a:ext cx="8553030" cy="255246"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1600" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>Прайс-лист компании "Нескучные игры"</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1600" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1600" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>Прайс-лист компании "Нескучные игры"</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31973</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>122203</xdr:rowOff>
+      <xdr:rowOff>26292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4356025</xdr:colOff>
+      <xdr:colOff>4400588</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>21796</xdr:rowOff>
+      <xdr:rowOff>78558</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Shape 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31973" y="665128"/>
-          <a:ext cx="4324053" cy="756844"/>
+          <a:off x="-6295" y="569217"/>
+          <a:ext cx="4400588" cy="909517"/>
+          <a:chOff x="-19049" y="-34040"/>
+          <a:chExt cx="4362151" cy="790882"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="-1"/>
+            <a:ext cx="4324052" cy="756844"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19050" y="-34041"/>
+            <a:ext cx="4362152" cy="521958"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>С-Пб, ул. Гельсингфорсская д.3</a:t>
+            </a:r>
+            <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="993300"/>
               </a:solidFill>
@@ -1455,58 +1538,49 @@
               <a:ea typeface="Arial"/>
               <a:cs typeface="Arial"/>
               <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>С-Пб, ул. Гельсингфорсская д.3</a:t>
-          </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="993300"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>т. (812) 715-45-11, 333-03-40</a:t>
+            </a:r>
+            <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="993300"/>
               </a:solidFill>
@@ -1515,58 +1589,49 @@
               <a:ea typeface="Arial"/>
               <a:cs typeface="Arial"/>
               <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>т. (812) 715-45-11, 333-03-40</a:t>
-          </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="993300"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>адрес в сети: www.bambytoys.ru</a:t>
+            </a:r>
+            <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="993300"/>
               </a:solidFill>
@@ -1575,154 +1640,181 @@
               <a:ea typeface="Arial"/>
               <a:cs typeface="Arial"/>
               <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>адрес в сети: www.bambytoys.ru</a:t>
-          </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="993300"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>bambyspb2@mail.ru</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="993300"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>bambyspb2@mail.ru</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33854</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>668473</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>118583</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71719</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112078</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Shape 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="-19050" y="2710379"/>
-          <a:ext cx="9901374" cy="1818280"/>
+          <a:off x="-38174" y="2455707"/>
+          <a:ext cx="9977721" cy="2209322"/>
+          <a:chOff x="-19050" y="-102869"/>
+          <a:chExt cx="9939473" cy="1921148"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF99"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1" y="0"/>
+            <a:ext cx="9901375" cy="1818279"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF99"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19051" y="-102870"/>
+            <a:ext cx="9939475" cy="1577341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>С 20 марта снижены цены на многие позиции издательства Магеллан</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1731,58 +1823,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>С 20 марта снижены цены на многие позиции издательства Магеллан</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>C 28 марта существенно снижены цены на игровые зоны Тайвань, игрушки ПКФ "Воронеж"</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1791,58 +1874,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>C 28 марта существенно снижены цены на игровые зоны Тайвань, игрушки ПКФ "Воронеж"</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>С 20 апреля выросли цены на часть импортных игр «Стиль жизни»</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1851,58 +1925,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>С 20 апреля выросли цены на часть импортных игр «Стиль жизни»</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>C 01 мая повышены цены на "Звезду"</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1911,58 +1976,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>C 01 мая повышены цены на "Звезду"</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>C 05 мая повышены цены на продукцию "РНТ"</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1971,58 +2027,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>C 05 мая повышены цены на продукцию "РНТ"</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>C 05 мая понижены цены на конструткоры Bauer Кроха. Цены фиксированы, скидка не предоставляется.</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2031,58 +2078,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>C 05 мая понижены цены на конструткоры Bauer Кроха. Цены фиксированы, скидка не предоставляется.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>С 10 мая понижены цены на Мякиши.</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2091,58 +2129,49 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>С 10 мая понижены цены на Мякиши.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>С 25 мая понижены цены на пазлы "Trefl"</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2151,181 +2180,184 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>С 25 мая понижены цены на пазлы "Trefl"</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Цены могут менятся на разные ТМ. Они могут к моменту заказа отличаться от указанных в прайсе</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Цены могут менятся на разные ТМ. Они могут к моменту заказа отличаться от указанных в прайсе</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1460624</xdr:colOff>
+      <xdr:colOff>1422146</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120220</xdr:rowOff>
+      <xdr:rowOff>88964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3381945</xdr:colOff>
+      <xdr:colOff>3420423</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>52467</xdr:rowOff>
+      <xdr:rowOff>68816</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Shape 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1460624" y="377395"/>
-          <a:ext cx="1921322" cy="217998"/>
+          <a:off x="1422146" y="346139"/>
+          <a:ext cx="1998277" cy="265603"/>
+          <a:chOff x="-19050" y="-12961"/>
+          <a:chExt cx="1959421" cy="230958"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1" y="-1"/>
+            <a:ext cx="1921323" cy="217999"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19051" y="-12962"/>
+            <a:ext cx="1959423" cy="198738"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="800" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>3 июня 2018 г.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+                <a:sym typeface="Arial"/>
+              </a:rPr>
+              <a:t>3 июня 2018 г.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,13 +2495,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -2559,7 +2585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2568,10 +2594,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2826,13 +2852,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -3136,7 +3156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3145,10 +3165,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3406,14 +3426,10 @@
   <sheetFormatPr defaultColWidth="10.6" defaultRowHeight="11.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="74.8125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6016" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6016" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6016" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6016" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6016" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.60156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6016" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6016" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6016" style="1" customWidth="1"/>
     <col min="10" max="256" width="10.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4093,7 +4109,7 @@
       </c>
       <c r="C41" s="65">
         <f>D41*1.7</f>
-        <v>954.3799999999999</v>
+        <v>954.38</v>
       </c>
       <c r="D41" s="71">
         <v>561.4</v>
@@ -4933,49 +4949,49 @@
     <mergeCell ref="G30:G31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="G35" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="G36" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="G37" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="G38" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="G39" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="G40" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="G41" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="G42" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="G43" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="G44" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="G45" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="G46" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="G47" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="G48" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="G49" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="G50" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="G51" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="G52" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="G53" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="G54" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="G55" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="G56" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="G57" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="G58" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="G59" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="G60" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="G61" r:id="rId28" location="" tooltip="" display=""/>
-    <hyperlink ref="G62" r:id="rId29" location="" tooltip="" display=""/>
-    <hyperlink ref="G63" r:id="rId30" location="" tooltip="" display=""/>
-    <hyperlink ref="G64" r:id="rId31" location="" tooltip="" display=""/>
-    <hyperlink ref="G65" r:id="rId32" location="" tooltip="" display=""/>
-    <hyperlink ref="G66" r:id="rId33" location="" tooltip="" display=""/>
-    <hyperlink ref="G67" r:id="rId34" location="" tooltip="" display=""/>
-    <hyperlink ref="G68" r:id="rId35" location="" tooltip="" display=""/>
-    <hyperlink ref="G69" r:id="rId36" location="" tooltip="" display=""/>
-    <hyperlink ref="G70" r:id="rId37" location="" tooltip="" display=""/>
-    <hyperlink ref="G71" r:id="rId38" location="" tooltip="" display=""/>
+    <hyperlink ref="G34" r:id="rId1" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G35" r:id="rId2" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G36" r:id="rId3" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G37" r:id="rId4" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G38" r:id="rId5" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G39" r:id="rId6" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G40" r:id="rId7" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G41" r:id="rId8" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G42" r:id="rId9" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G43" r:id="rId10" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G44" r:id="rId11" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G45" r:id="rId12" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G46" r:id="rId13" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G47" r:id="rId14" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G48" r:id="rId15" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G49" r:id="rId16" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G50" r:id="rId17" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G51" r:id="rId18" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G52" r:id="rId19" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G53" r:id="rId20" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G54" r:id="rId21" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G55" r:id="rId22" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G56" r:id="rId23" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G57" r:id="rId24" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G58" r:id="rId25" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G59" r:id="rId26" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G60" r:id="rId27" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G61" r:id="rId28" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G62" r:id="rId29" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G63" r:id="rId30" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G64" r:id="rId31" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G65" r:id="rId32" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G66" r:id="rId33" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G67" r:id="rId34" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G68" r:id="rId35" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G69" r:id="rId36" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G70" r:id="rId37" location="" tooltip="" display="Фото"/>
+    <hyperlink ref="G71" r:id="rId38" location="" tooltip="" display="Фото"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId39"/>
 </worksheet>
